--- a/examples/sbtab-sbml/ecoli_wortel_2018_model.xlsx
+++ b/examples/sbtab-sbml/ecoli_wortel_2018_model.xlsx
@@ -7,60 +7,60 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="!Compartment" sheetId="1" r:id="rId1"/>
-    <sheet name="!Compound" sheetId="2" r:id="rId2"/>
-    <sheet name="!Definition" sheetId="3" r:id="rId3"/>
-    <sheet name="!Enzyme" sheetId="4" r:id="rId4"/>
-    <sheet name="!FbcObjective" sheetId="5" r:id="rId5"/>
-    <sheet name="!Gene" sheetId="6" r:id="rId6"/>
-    <sheet name="!Layout" sheetId="7" r:id="rId7"/>
-    <sheet name="!Measurement" sheetId="8" r:id="rId8"/>
-    <sheet name="!PbConfig" sheetId="9" r:id="rId9"/>
-    <sheet name="!Position" sheetId="10" r:id="rId10"/>
-    <sheet name="!Protein" sheetId="11" r:id="rId11"/>
-    <sheet name="!Quantity" sheetId="12" r:id="rId12"/>
-    <sheet name="!QuantityInfo" sheetId="13" r:id="rId13"/>
-    <sheet name="!QuantityMatrix" sheetId="14" r:id="rId14"/>
-    <sheet name="!Reaction" sheetId="15" r:id="rId15"/>
-    <sheet name="!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
-    <sheet name="!Regulator" sheetId="17" r:id="rId17"/>
-    <sheet name="!Relation" sheetId="18" r:id="rId18"/>
-    <sheet name="!Relationship" sheetId="19" r:id="rId19"/>
-    <sheet name="!SparseMatrix" sheetId="20" r:id="rId20"/>
-    <sheet name="!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
-    <sheet name="!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
-    <sheet name="!SparseMatrixRow" sheetId="23" r:id="rId23"/>
-    <sheet name="!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
-    <sheet name="!rxnconContingencyList" sheetId="25" r:id="rId25"/>
-    <sheet name="!rxnconReactionList" sheetId="26" r:id="rId26"/>
+    <sheet name="!!Compartment" sheetId="1" r:id="rId1"/>
+    <sheet name="!!Compound" sheetId="2" r:id="rId2"/>
+    <sheet name="!!Definition" sheetId="3" r:id="rId3"/>
+    <sheet name="!!Enzyme" sheetId="4" r:id="rId4"/>
+    <sheet name="!!FbcObjective" sheetId="5" r:id="rId5"/>
+    <sheet name="!!Gene" sheetId="6" r:id="rId6"/>
+    <sheet name="!!Layout" sheetId="7" r:id="rId7"/>
+    <sheet name="!!Measurement" sheetId="8" r:id="rId8"/>
+    <sheet name="!!PbConfig" sheetId="9" r:id="rId9"/>
+    <sheet name="!!Position" sheetId="10" r:id="rId10"/>
+    <sheet name="!!Protein" sheetId="11" r:id="rId11"/>
+    <sheet name="!!Quantity" sheetId="12" r:id="rId12"/>
+    <sheet name="!!QuantityInfo" sheetId="13" r:id="rId13"/>
+    <sheet name="!!QuantityMatrix" sheetId="14" r:id="rId14"/>
+    <sheet name="!!Reaction" sheetId="15" r:id="rId15"/>
+    <sheet name="!!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
+    <sheet name="!!Regulator" sheetId="17" r:id="rId17"/>
+    <sheet name="!!Relation" sheetId="18" r:id="rId18"/>
+    <sheet name="!!Relationship" sheetId="19" r:id="rId19"/>
+    <sheet name="!!SparseMatrix" sheetId="20" r:id="rId20"/>
+    <sheet name="!!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
+    <sheet name="!!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
+    <sheet name="!!SparseMatrixRow" sheetId="23" r:id="rId23"/>
+    <sheet name="!!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
+    <sheet name="!!rxnconContingencyList" sheetId="25" r:id="rId25"/>
+    <sheet name="!!rxnconReactionList" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Compartment'!$A$2:$T$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Compound'!$A$2:$AI$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Definition'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Enzyme'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!FbcObjective'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!Gene'!$A$2:$V$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!Layout'!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!Measurement'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!PbConfig'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!Position'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!Protein'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!Quantity'!$A$2:$BW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!QuantityInfo'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!QuantityMatrix'!$A$2:$AW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!Reaction'!$A$2:$AU$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!ReactionStoichiometry'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!Regulator'!$A$2:$Q$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!Relation'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!Relationship'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!rxnconContingencyList'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!rxnconReactionList'!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!SparseMatrix'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!SparseMatrixColumn'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!SparseMatrixOrdered'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!SparseMatrixRow'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!StoichiometricMatrix'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Compartment'!$A$3:$T$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2:$AI$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Definition'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Enzyme'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!FbcObjective'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Gene'!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Layout'!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Measurement'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!PbConfig'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Position'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Protein'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Quantity'!$A$2:$BW$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!QuantityInfo'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!QuantityMatrix'!$A$2:$AW$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!Reaction'!$A$2:$AU$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!ReactionStoichiometry'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Regulator'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Relation'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Relationship'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!!rxnconContingencyList'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!!rxnconReactionList'!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!SparseMatrix'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!SparseMatrixColumn'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!SparseMatrixOrdered'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!SparseMatrixRow'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!StoichiometricMatrix'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -72,7 +72,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6340,9 +6340,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="436">
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="437">
+  <si>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:11:29'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:11:29' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6411,7 +6414,7 @@
     <t>external</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:11:29' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6777,7 +6780,7 @@
     <t>XYL_5_P</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:11:29' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6792,7 +6795,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:11:29' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6813,7 +6816,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6828,7 +6831,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6858,7 +6861,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6894,7 +6897,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6906,7 +6909,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6915,16 +6918,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7086,7 +7089,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7104,7 +7107,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7143,7 +7146,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7521,7 +7524,7 @@
     <t>KDPG &lt;=&gt; GA_3P + PYR</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7533,7 +7536,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7545,7 +7548,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7560,13 +7563,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 02:12:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 02:12:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7575,13 +7578,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 02:12:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 02:12:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7590,19 +7593,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 02:12:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:11:32' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 02:12:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:11:32' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 02:12:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:11:32' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7623,7 +7626,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 02:12:53' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:11:32' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -8021,10 +8024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -8059,94 +8062,90 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="15.01" customHeight="1">
       <c r="A4" s="4"/>
@@ -8176,71 +8175,99 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
+    <row r="5" spans="1:20" ht="15.01" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:T4"/>
+  <autoFilter ref="A3:T5"/>
   <dataValidations count="20">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E3:E4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F3:F4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3:G4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I3:I4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J3:J4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A4:A5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C4:C5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D4:D5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E4:E5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F4:F5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G4:G5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H4:H5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I4:I5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J4:J5">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K3:K4">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K4:K5">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L3:L4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M3:M4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N3:N4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O3:O4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P3:P4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L4:L5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M4:M5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N4:N5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O4:O5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P4:P5">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q3:Q4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R3:R4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S3:S4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T3:T4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q4:Q5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R4:R5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S4:S5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T4:T5">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -8266,20 +8293,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -8320,7 +8347,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8339,49 +8366,49 @@
     </row>
     <row r="2" spans="1:15" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -8460,7 +8487,7 @@
   <sheetData>
     <row r="1" spans="1:75" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8539,229 +8566,229 @@
     </row>
     <row r="2" spans="1:75" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -9040,7 +9067,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9063,61 +9090,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -9210,7 +9237,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9263,151 +9290,151 @@
     </row>
     <row r="2" spans="1:49" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="AE2" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -9602,7 +9629,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9653,145 +9680,145 @@
     </row>
     <row r="2" spans="1:47" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="AD2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="15.01" customHeight="1">
@@ -9802,7 +9829,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -9810,11 +9837,11 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -9873,7 +9900,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -9881,11 +9908,11 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -9944,7 +9971,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -9952,11 +9979,11 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -10015,7 +10042,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -10023,11 +10050,11 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -10086,7 +10113,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -10094,11 +10121,11 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -10157,7 +10184,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -10165,11 +10192,11 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -10228,7 +10255,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -10236,11 +10263,11 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -10299,7 +10326,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -10307,11 +10334,11 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -10370,7 +10397,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -10378,11 +10405,11 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -10441,7 +10468,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -10449,11 +10476,11 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -10512,7 +10539,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -10520,11 +10547,11 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -10583,7 +10610,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -10591,11 +10618,11 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -10654,7 +10681,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -10662,11 +10689,11 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -10725,7 +10752,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -10733,11 +10760,11 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -10796,7 +10823,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -10804,11 +10831,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -10867,7 +10894,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -10875,11 +10902,11 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -10938,7 +10965,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -10946,11 +10973,11 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -11009,7 +11036,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -11017,11 +11044,11 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -11080,7 +11107,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -11088,11 +11115,11 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -11151,7 +11178,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -11159,11 +11186,11 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -11222,7 +11249,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -11230,11 +11257,11 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -11293,7 +11320,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -11301,11 +11328,11 @@
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -11364,7 +11391,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -11372,11 +11399,11 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -11435,7 +11462,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -11443,11 +11470,11 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -11506,7 +11533,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -11514,11 +11541,11 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -11577,7 +11604,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -11585,11 +11612,11 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -11648,7 +11675,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -11656,11 +11683,11 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -11719,7 +11746,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -11727,11 +11754,11 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -11790,7 +11817,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -11798,11 +11825,11 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -11861,7 +11888,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -11869,11 +11896,11 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -11932,7 +11959,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -11940,11 +11967,11 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -12003,7 +12030,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -12011,11 +12038,11 @@
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
@@ -12074,7 +12101,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -12082,11 +12109,11 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
@@ -12145,7 +12172,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
@@ -12153,11 +12180,11 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -12216,7 +12243,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -12224,11 +12251,11 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -12287,7 +12314,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -12295,11 +12322,11 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -12358,7 +12385,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -12366,11 +12393,11 @@
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -12429,7 +12456,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -12437,11 +12464,11 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -12500,7 +12527,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -12508,11 +12535,11 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -12571,7 +12598,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
@@ -12579,11 +12606,11 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -12642,7 +12669,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -12650,11 +12677,11 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -12713,7 +12740,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -12721,11 +12748,11 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -12784,7 +12811,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -12792,11 +12819,11 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -12855,7 +12882,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -12863,11 +12890,11 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -12926,7 +12953,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -12934,11 +12961,11 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -12997,7 +13024,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -13005,11 +13032,11 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -13068,7 +13095,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -13076,11 +13103,11 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
@@ -13139,7 +13166,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
@@ -13147,11 +13174,11 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
@@ -13210,7 +13237,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -13218,11 +13245,11 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N51" s="4"/>
       <c r="O51" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
@@ -13281,7 +13308,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -13289,11 +13316,11 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
@@ -13352,7 +13379,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -13360,11 +13387,11 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
@@ -13586,7 +13613,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13596,22 +13623,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -13659,7 +13686,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13680,55 +13707,55 @@
     </row>
     <row r="2" spans="1:17" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -13811,7 +13838,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13825,34 +13852,34 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -13913,7 +13940,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13924,25 +13951,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -13994,7 +14021,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14033,109 +14060,109 @@
     </row>
     <row r="2" spans="1:35" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.01" customHeight="1">
@@ -14145,7 +14172,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -14153,7 +14180,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -14163,7 +14190,7 @@
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -14194,7 +14221,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -14202,7 +14229,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -14212,7 +14239,7 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -14243,7 +14270,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -14251,7 +14278,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -14261,7 +14288,7 @@
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -14292,7 +14319,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -14300,7 +14327,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -14310,7 +14337,7 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -14341,7 +14368,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -14349,7 +14376,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -14359,7 +14386,7 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -14390,7 +14417,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -14398,7 +14425,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -14408,7 +14435,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -14439,7 +14466,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -14447,7 +14474,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -14457,7 +14484,7 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -14488,7 +14515,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -14496,7 +14523,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -14506,7 +14533,7 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -14537,7 +14564,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -14545,7 +14572,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -14555,7 +14582,7 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -14586,7 +14613,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -14594,7 +14621,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -14604,7 +14631,7 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -14635,7 +14662,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -14643,7 +14670,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -14653,7 +14680,7 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -14684,7 +14711,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -14692,7 +14719,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -14702,7 +14729,7 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -14733,7 +14760,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -14741,7 +14768,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -14751,7 +14778,7 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -14782,7 +14809,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -14790,7 +14817,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -14800,7 +14827,7 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -14831,7 +14858,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -14839,7 +14866,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -14849,7 +14876,7 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -14880,7 +14907,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -14888,7 +14915,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -14898,7 +14925,7 @@
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -14929,7 +14956,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -14937,7 +14964,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -14947,7 +14974,7 @@
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -14978,7 +15005,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -14986,7 +15013,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -14996,7 +15023,7 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -15027,7 +15054,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -15035,7 +15062,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -15045,7 +15072,7 @@
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -15076,7 +15103,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -15084,7 +15111,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -15094,7 +15121,7 @@
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -15125,7 +15152,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -15133,7 +15160,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -15143,7 +15170,7 @@
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -15174,7 +15201,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -15182,7 +15209,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -15192,7 +15219,7 @@
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -15223,7 +15250,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -15231,7 +15258,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -15241,7 +15268,7 @@
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -15272,7 +15299,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -15280,7 +15307,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -15290,7 +15317,7 @@
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -15321,7 +15348,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -15329,7 +15356,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -15339,7 +15366,7 @@
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -15370,7 +15397,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -15378,7 +15405,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -15388,7 +15415,7 @@
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -15419,7 +15446,7 @@
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -15427,7 +15454,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -15437,7 +15464,7 @@
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
@@ -15468,7 +15495,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -15476,7 +15503,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -15486,7 +15513,7 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
@@ -15517,7 +15544,7 @@
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -15525,7 +15552,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -15535,7 +15562,7 @@
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
@@ -15566,7 +15593,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -15574,7 +15601,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -15584,7 +15611,7 @@
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
@@ -15615,7 +15642,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -15623,7 +15650,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -15633,7 +15660,7 @@
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
@@ -15664,7 +15691,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -15672,7 +15699,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -15682,7 +15709,7 @@
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
@@ -15713,7 +15740,7 @@
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -15721,7 +15748,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -15731,7 +15758,7 @@
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -15762,7 +15789,7 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -15770,7 +15797,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -15780,7 +15807,7 @@
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
@@ -15811,7 +15838,7 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -15819,7 +15846,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -15829,7 +15856,7 @@
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
@@ -15860,7 +15887,7 @@
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -15868,7 +15895,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -15878,7 +15905,7 @@
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
@@ -15909,7 +15936,7 @@
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -15917,7 +15944,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -15927,7 +15954,7 @@
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
@@ -15958,7 +15985,7 @@
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -15966,7 +15993,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -15976,7 +16003,7 @@
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
@@ -16007,7 +16034,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -16015,7 +16042,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
@@ -16025,7 +16052,7 @@
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
@@ -16056,7 +16083,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -16064,7 +16091,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -16074,7 +16101,7 @@
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
@@ -16105,7 +16132,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -16113,7 +16140,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -16123,7 +16150,7 @@
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
@@ -16154,7 +16181,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -16162,7 +16189,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -16172,7 +16199,7 @@
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
@@ -16203,7 +16230,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -16211,7 +16238,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -16221,7 +16248,7 @@
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
@@ -16252,7 +16279,7 @@
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -16260,7 +16287,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -16270,7 +16297,7 @@
       </c>
       <c r="Q46" s="4"/>
       <c r="R46" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
@@ -16301,7 +16328,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -16309,7 +16336,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -16319,7 +16346,7 @@
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
@@ -16350,7 +16377,7 @@
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -16358,7 +16385,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -16368,7 +16395,7 @@
       </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
@@ -16399,7 +16426,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -16407,7 +16434,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
@@ -16417,7 +16444,7 @@
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
@@ -16448,7 +16475,7 @@
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -16456,7 +16483,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
@@ -16466,7 +16493,7 @@
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
@@ -16497,7 +16524,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -16505,7 +16532,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="L51" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
@@ -16515,7 +16542,7 @@
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
@@ -16546,7 +16573,7 @@
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -16554,7 +16581,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -16564,7 +16591,7 @@
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
@@ -16595,7 +16622,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -16603,7 +16630,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
@@ -16613,7 +16640,7 @@
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
@@ -16776,20 +16803,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -16829,16 +16856,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -16874,20 +16901,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -16929,16 +16956,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -16974,7 +17001,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16983,19 +17010,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -17040,7 +17067,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17052,28 +17079,28 @@
     </row>
     <row r="2" spans="1:8" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -17128,7 +17155,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17144,40 +17171,40 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -17244,7 +17271,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17253,19 +17280,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -17310,7 +17337,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17333,61 +17360,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -17476,7 +17503,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17486,22 +17513,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -17549,7 +17576,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17575,70 +17602,70 @@
     </row>
     <row r="2" spans="1:22" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -17736,7 +17763,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17753,43 +17780,43 @@
     </row>
     <row r="2" spans="1:13" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -17862,7 +17889,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -17871,19 +17898,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -17928,16 +17955,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/examples/sbtab-sbml/ecoli_wortel_2018_model.xlsx
+++ b/examples/sbtab-sbml/ecoli_wortel_2018_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="437">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:11:29'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:11:29' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:56'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>external</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:11:29' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6780,7 +6780,7 @@
     <t>XYL_5_P</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:11:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6795,7 +6795,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:11:29' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6816,7 +6816,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6831,7 +6831,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6861,7 +6861,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6897,7 +6897,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6909,7 +6909,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6918,16 +6918,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7089,7 +7089,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:11:30' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7107,7 +7107,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7146,7 +7146,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7524,7 +7524,7 @@
     <t>KDPG &lt;=&gt; GA_3P + PYR</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7536,7 +7536,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7548,7 +7548,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7563,13 +7563,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7578,13 +7578,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:11:31' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7593,19 +7593,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:11:32' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:11:32' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:11:32' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:57' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7626,7 +7626,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:11:32' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:57' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -8204,7 +8204,7 @@
       <c r="T5" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A3:T5"/>
   <dataValidations count="20">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A4:A5">
@@ -8310,7 +8310,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Element" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Element" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -8412,7 +8412,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:O2"/>
   <dataValidations count="15">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -8792,7 +8792,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:BW2"/>
   <dataValidations count="75">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -9148,7 +9148,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="QuantityType" error="QuantityType (e.g. from SBO)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="QuantityType" prompt="QuantityType (e.g. from SBO)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -9438,7 +9438,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AW2"/>
   <dataValidations count="49">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -13443,7 +13443,7 @@
       <c r="AU53" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AU53"/>
   <dataValidations count="47">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A53">
@@ -13642,7 +13642,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Identifier shortname of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Identifier shortname of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -13759,7 +13759,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:Q2"/>
   <dataValidations count="17">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -13883,7 +13883,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:J2"/>
   <dataValidations count="10">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -13973,7 +13973,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:G2"/>
   <dataValidations count="7">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16665,7 +16665,7 @@
       <c r="AI53" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AI53"/>
   <dataValidations count="35">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A53">
@@ -16820,7 +16820,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16869,7 +16869,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16918,7 +16918,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -16969,7 +16969,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -17026,7 +17026,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -17104,7 +17104,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:H2"/>
   <dataValidations count="8">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -17208,7 +17208,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="12">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -17296,7 +17296,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentName" error="Name of component (table, column, attribute to be defined)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentName" prompt="Name of component (table, column, attribute to be defined)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -17418,7 +17418,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -17532,7 +17532,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of objective in FBC package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of objective in FBC package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -17669,7 +17669,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:V2"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -17820,7 +17820,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:M2"/>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of layout package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of layout package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -17914,7 +17914,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sample" error="Measurement value shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Sample" prompt="Measurement value shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -17968,7 +17968,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">

--- a/examples/sbtab-sbml/ecoli_wortel_2018_model.xlsx
+++ b/examples/sbtab-sbml/ecoli_wortel_2018_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="437">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:56'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:02:22'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:02:22' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>external</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:02:22' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6780,7 +6780,7 @@
     <t>XYL_5_P</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6795,7 +6795,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6816,7 +6816,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6831,7 +6831,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6861,7 +6861,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6897,7 +6897,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6909,7 +6909,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6918,16 +6918,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7089,7 +7089,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7107,7 +7107,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7146,7 +7146,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8' Document='ecoli_wortel_2018'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:02:22' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7524,7 +7524,7 @@
     <t>KDPG &lt;=&gt; GA_3P + PYR</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7536,7 +7536,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7548,7 +7548,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7563,13 +7563,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7578,13 +7578,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7593,19 +7593,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:57' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7626,7 +7626,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:57' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab-sbml/ecoli_wortel_2018_model.xlsx
+++ b/examples/sbtab-sbml/ecoli_wortel_2018_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="437">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:02:22'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:02:22' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:32:45'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' document='ecoli_wortel_2018' tableFormat='row'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>external</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:02:22' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' document='ecoli_wortel_2018' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6780,7 +6780,7 @@
     <t>XYL_5_P</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6795,7 +6795,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6816,7 +6816,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6831,7 +6831,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6861,7 +6861,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6897,7 +6897,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6909,7 +6909,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6918,16 +6918,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7089,7 +7089,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7107,7 +7107,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7146,7 +7146,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:02:22' objTablesVersion='0.0.8' document='ecoli_wortel_2018'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' document='ecoli_wortel_2018' tableFormat='row'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7524,7 +7524,7 @@
     <t>KDPG &lt;=&gt; GA_3P + PYR</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7536,7 +7536,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7548,7 +7548,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7563,13 +7563,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7578,13 +7578,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7593,19 +7593,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:32:45' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7626,7 +7626,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:02:22' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:32:46' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
